--- a/DownloadDataForDK/ModelData/id2g_E.xlsx
+++ b/DownloadDataForDK/ModelData/id2g_E.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,912 +448,372 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Biogas</t>
+          <t>id_DK_Central_BP_Biogas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Biomass</t>
+          <t>id_DK_Central_BP_Biomass</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Coal</t>
+          <t>id_DK_Central_BP_Coal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Natgas</t>
+          <t>id_DK_Central_BP_Natgas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Oil</t>
+          <t>id_DK_Central_BP_Oil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>id_DK1_Central_BP_Waste</t>
+          <t>id_DK_Central_BP_Waste</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>id_DK1_Central_EP</t>
+          <t>id_DK_Central_EP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>id_DK1_Central_HPstandard</t>
+          <t>id_DK_Central_HPstandard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>id_DK1_Central_HPsurplusheat</t>
+          <t>id_DK_Central_HPsurplusheat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>id_DK1_Central_IH</t>
+          <t>id_DK_Central_IH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Biogas</t>
+          <t>id_DK_Decentral_BP_Biogas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Biomass</t>
+          <t>id_DK_Decentral_BP_Biomass</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Natgas</t>
+          <t>id_DK_Decentral_BP_Natgas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Oil</t>
+          <t>id_DK_Decentral_BP_Oil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_BP_Waste</t>
+          <t>id_DK_Decentral_BP_Waste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_EP</t>
+          <t>id_DK_Decentral_EP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_HPstandard</t>
+          <t>id_DK_Decentral_HPstandard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_HPsurplusheat</t>
+          <t>id_DK_Decentral_HPsurplusheat</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK1_LargeDecentral_IH</t>
+          <t>id_DK_Decentral_IH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Oil</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_BP_Waste</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_EP</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_HPstandard</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_HPsurplusheat</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>id_DK1_SmallDecentral_IH</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>id_DK1_nan_CD_Biogas</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>id_DK1_nan_IndustryE_Biogas</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DK1</t>
+          <t>DK</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>id_DK1_nan_IndustryE_Biomass</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_PV</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_ROR</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_WL</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>id_DK1_nan_WS</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_HPstandard</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>id_DK2_Central_IH</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_BP_Waste</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_HPsurplusheat</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>id_DK2_LargeDecentral_IH</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Biogas</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Biomass</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Natgas</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_BP_Oil</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_HPstandard</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>id_DK2_SmallDecentral_IH</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Biogas</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Biogas</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_PV</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_WL</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>id_DK2_nan_WS</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_DELU</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_NL</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_NO2</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>id_DK1_ImportFrom_SE3</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>id_DK2_ImportFrom_DELU</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>id_DK2_ImportFrom_SE4</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>DK2</t>
+          <t>DK</t>
         </is>
       </c>
     </row>

--- a/DownloadDataForDK/ModelData/id2g_E.xlsx
+++ b/DownloadDataForDK/ModelData/id2g_E.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biogas</t>
+          <t>id_DK_nan_CD_Biogas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Biomass</t>
+          <t>id_DK_nan_IndustryE_Biogas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Natgas</t>
+          <t>id_DK_nan_IndustryE_Biomass</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Oil</t>
+          <t>id_DK_nan_CD_Coal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_BP_Waste</t>
+          <t>id_DK_nan_CD_Natgas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_EP</t>
+          <t>id_DK_nan_IndustryE_Natgas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_HPstandard</t>
+          <t>id_DK_nan_CD_Oil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_HPsurplusheat</t>
+          <t>id_DK_nan_IndustryE_Oil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id_DK_Decentral_IH</t>
+          <t>id_DK_nan_PV</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id_DK_nan_CD_Biogas</t>
+          <t>id_DK_nan_ROR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biogas</t>
+          <t>id_DK_nan_WL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,118 +700,10 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id_DK_nan_IndustryE_Biomass</t>
+          <t>id_DK_nan_WS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Coal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Natgas</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Natgas</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>id_DK_nan_CD_Oil</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>id_DK_nan_IndustryE_Oil</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>id_DK_nan_PV</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>id_DK_nan_ROR</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WL</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DK</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>id_DK_nan_WS</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
         <is>
           <t>DK</t>
         </is>
